--- a/biology/Botanique/Indigofera_rhynchocarpa/Indigofera_rhynchocarpa.xlsx
+++ b/biology/Botanique/Indigofera_rhynchocarpa/Indigofera_rhynchocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indigofera rhynchocarpa est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigofera rhynchocarpa est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste dont la hauteur est généralement comprise entre 50 et 200 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste dont la hauteur est généralement comprise entre 50 et 200 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Répandue en Afrique tropicale, l'espèce a notamment été observée au Ghana, au Bénin, au Togo, au Nigeria, au sud du Tchad, en Ouganda et au nord de la Tanzanie, également vers le sud en Angola, au Zimbabwe et au Mozambique[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Répandue en Afrique tropicale, l'espèce a notamment été observée au Ghana, au Bénin, au Togo, au Nigeria, au sud du Tchad, en Ouganda et au nord de la Tanzanie, également vers le sud en Angola, au Zimbabwe et au Mozambique,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve sur des terrains défrichés[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve sur des terrains défrichés.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est récoltée à l'état sauvage à des fins médicinales : les racines en décoction sont employées comme vermifuge contre les infections dues aux oxyures[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est récoltée à l'état sauvage à des fins médicinales : les racines en décoction sont employées comme vermifuge contre les infections dues aux oxyures
 </t>
         </is>
       </c>
@@ -635,13 +655,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (21 juin 2020)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 juin 2020) :
 variété Indigofera rhynchocarpa var. latipinna
 variété Indigofera rhynchocarpa var. rhynchocarpa
 variété Indigofera rhynchocarpa var. uluguruensis
-Selon Tropicos                                           (21 juin 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Indigofera rhynchocarpa var. quadrangularis Berhaut
 variété Indigofera rhynchocarpa var. rhynchocarpa
 variété Indigofera rhynchocarpa var. uluguruensis J.B. Gillett</t>
